--- a/biology/Zoologie/Dendroica/Dendroica.xlsx
+++ b/biology/Zoologie/Dendroica/Dendroica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dendroica Gray, 1842, est un ancien genre de passereaux de la famille des Parulidae. La classification de référence (version 2.11, 2012) du Congrès ornithologique international suit les recommandations de Lovette et al. (2010)[1], et ce genre est démantelé au profit du nouveau genre Setophaga.
+Dendroica Gray, 1842, est un ancien genre de passereaux de la famille des Parulidae. La classification de référence (version 2.11, 2012) du Congrès ornithologique international suit les recommandations de Lovette et al. (2010), et ce genre est démantelé au profit du nouveau genre Setophaga.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Avant la version 2.11 de la classification de la COI, le genre était constitué des espèces suivantes (par ordre alphabétique) :
 Dendroica adelaidae – Paruline d'Adélaïde
@@ -576,7 +590,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dendroica coronata
